--- a/Output/cutton_year_result.xlsx
+++ b/Output/cutton_year_result.xlsx
@@ -48,7 +48,7 @@
     <t>(.0066482)</t>
   </si>
   <si>
-    <t>1950 x Percentage Decrease in Tenant Area in 1953</t>
+    <t>1950 x Percentage Decrease in Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">853.6504   </t>
@@ -69,7 +69,7 @@
     <t>(629.5784)</t>
   </si>
   <si>
-    <t>1951 x Percentage Decrease in Tenant Area in 1953</t>
+    <t>1951 x Percentage Decrease in Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">357.9854   </t>
@@ -84,7 +84,7 @@
     <t>(358.8395)</t>
   </si>
   <si>
-    <t>1954 x Percentage Decrease in Tenant Area in 1953</t>
+    <t>1954 x Percentage Decrease in Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">-192.5859   </t>
@@ -105,7 +105,7 @@
     <t>(268.4952)</t>
   </si>
   <si>
-    <t>1955 x Percentage Decrease in Tenant Area in 1953</t>
+    <t>1955 x Percentage Decrease in Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">1003.88   </t>
@@ -126,7 +126,7 @@
     <t>(1071.565)</t>
   </si>
   <si>
-    <t>1956 x Percentage Decrease in Tenant Area in 1953</t>
+    <t>1956 x Percentage Decrease in Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">195.5074   </t>
